--- a/FinalExam/external/data..xlsx
+++ b/FinalExam/external/data..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="teams" sheetId="1" r:id="rId1"/>
@@ -3058,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,6 +3423,7 @@
   </sheetData>
   <autoFilter ref="A1:D1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33641,8 +33642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33650,7 +33651,7 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
